--- a/biology/Zoologie/Allothele_teretis/Allothele_teretis.xlsx
+++ b/biology/Zoologie/Allothele_teretis/Allothele_teretis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allothele teretis est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allothele teretis est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du KwaZulu-Natal en Afrique du Sud[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du KwaZulu-Natal en Afrique du Sud,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle syntype mesure 3,9 mm de long sur 3,2 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle syntype mesure 3,9 mm de long sur 3,2 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
